--- a/EnvironmentalReport.xlsx
+++ b/EnvironmentalReport.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,567 +474,567 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>扩建年产航空发动机高温合金新材料产品2000吨生产项目</t>
+          <t>上海申达股份有限公司技术中心建设项目</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>92cad8e9-8ee9-4317-ab68-9e114d902c86</t>
+          <t>fbe94f9d-b3dc-4130-8d53-0b0d549d831b</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区枫泾镇兴豪路89 </t>
+          <t xml:space="preserve">嘉定区安亭镇园国路1188号1幢 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-06-28 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=92cad8e9-8ee9-4317-ab68-9e114d902c86&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=fbe94f9d-b3dc-4130-8d53-0b0d549d831b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>集成电路制造用300毫米硅片技术研发与产业化二期项目</t>
+          <t>上海市崇明县猛西砂石供应站码头建设项目</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>34413210-da1c-4e19-8e4d-5e9894ee70b2</t>
+          <t>31665350-7872-4af7-aa4f-9fde42cca11e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">临港地区开发建设管委会 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区泥城镇云水路1000号 </t>
+          <t xml:space="preserve">崇明区庙镇／／猛西村保南11队 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-07-08 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=34413210-da1c-4e19-8e4d-5e9894ee70b2&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=31665350-7872-4af7-aa4f-9fde42cca11e&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>新建上海经苏州至湖州铁路</t>
+          <t>上海海益废旧物资回收有限公司码头项目</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>44a0fe1b-801f-41a2-ab76-3cf1d543349c</t>
+          <t>00f3d718-fe5c-45d9-b992-0fef19839371</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">市局 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区,松江区,青浦区另涉及苏州市、湖州市 </t>
+          <t xml:space="preserve">金山区亭林镇亭枫公路1269号 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-08-06 </t>
+          <t xml:space="preserve">2020-08-14 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-21 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=44a0fe1b-801f-41a2-ab76-3cf1d543349c&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=00f3d718-fe5c-45d9-b992-0fef19839371&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>崇明岛堡镇港北等四座水闸外移工程</t>
+          <t>上海涛源建材经营部码头项目</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>62269575-fc01-4b00-aa83-9149a3f309fb</t>
+          <t>82ec8773-5406-4aef-8842-975f998f1850</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">崇明区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">崇明区堡镇G40东侧00 </t>
+          <t xml:space="preserve">金山区金山卫镇八一村1012号 </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-08-21 </t>
+          <t xml:space="preserve">2020-08-14 </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-21 </t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=62269575-fc01-4b00-aa83-9149a3f309fb&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=82ec8773-5406-4aef-8842-975f998f1850&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>长谊特种纸（上海）有限公司扩建项目</t>
+          <t>上海深迅通信技术有限公司新建项目</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>83a173c0-3a27-4258-8438-77e4523e2a42</t>
+          <t>a547e582-adc2-4756-8add-ece0bff503bb</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区宝山城市工业园区丰翔1369 </t>
+          <t xml:space="preserve">嘉定区南翔镇浏翔路678号3幢2层A区 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-08-21 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=83a173c0-3a27-4258-8438-77e4523e2a42&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a547e582-adc2-4756-8add-ece0bff503bb&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>上海惠中生物科技有限公司扩产及实验室项目</t>
+          <t>上海帕琴印刷包装有限公司丝网印刷机项目</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5eb85820-3d39-41fe-bafa-f49efb7322e5</t>
+          <t>c982e1f8-c801-4e08-b336-b5a5495bbe90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">普陀区 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区山阳镇卫昌路1018号2号楼的1、3层和3号楼的1、2、4层 </t>
+          <t xml:space="preserve">普陀区桃浦街道柳园路599号 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5eb85820-3d39-41fe-bafa-f49efb7322e5&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c982e1f8-c801-4e08-b336-b5a5495bbe90&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>石油化工机械设备及配件、机电设备、防腐设备、 环保设备、钢结构生产项目</t>
+          <t>上海大蒸港砂石有限公司码头项目</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>87a59365-3610-46bf-9d44-0b13cd3f5f69</t>
+          <t>0cb4dc97-86f1-43e1-b904-2ed4de666ef8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">青浦区 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区廊下镇万勇路58号3幢底层南侧 </t>
+          <t xml:space="preserve">青浦区练塘镇四合路5号（小蒸镇南自来水厂东侧） </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=87a59365-3610-46bf-9d44-0b13cd3f5f69&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=0cb4dc97-86f1-43e1-b904-2ed4de666ef8&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>上海横竖金属制品有限公司建设项目</t>
+          <t>上海东华之星汽车维修服务有限公司扩增钣喷车间项目</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>d1963c73-bc55-4029-9476-6ab5394c579a</t>
+          <t>e5380710-811f-4490-84b6-3fb4dae5123e</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">中国（上海）自由贸易试验区 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇南奉公路4322弄1号1层 </t>
+          <t xml:space="preserve">浦东新区自贸区申江路500号 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d1963c73-bc55-4029-9476-6ab5394c579a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e5380710-811f-4490-84b6-3fb4dae5123e&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>上海水谷精密模具制造有限公司搬迁项目</t>
+          <t>上海市金山区海洋海塘管理所码头项目</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5e7ee88e-0655-4be9-94ee-20ac605dd19d</t>
+          <t>00f6a534-8842-4e93-8127-fc70cb457198</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区顾村镇富联一路2881幢厂房部分区域 </t>
+          <t xml:space="preserve">金山区漕泾镇张家厍沪杭公路4458号 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5e7ee88e-0655-4be9-94ee-20ac605dd19d&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=00f6a534-8842-4e93-8127-fc70cb457198&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>上海拙成幕墙装饰制作有限公司新建项目</t>
+          <t>上海市金山区硕垚建材经营部码头项目</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>986b8ad6-2be4-4ad7-bad0-b0e6d16b780d</t>
+          <t>cd7ace6d-8575-42db-aa5a-8934b0a7c7b5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区外冈镇恒乐路55号1栋 </t>
+          <t xml:space="preserve">金山区枫泾镇兴塔泖桥村12组2001号 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=986b8ad6-2be4-4ad7-bad0-b0e6d16b780d&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=cd7ace6d-8575-42db-aa5a-8934b0a7c7b5&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>施乐百机电设备（上海）有限公司扩建项目</t>
+          <t>晟碟半导体（上海）有限公司三期及综合配套项目</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>a760ebe6-99c6-47b3-9656-1c411fd2f786</t>
+          <t>5e6e4b26-c960-498f-9969-ce1d6c7fb470</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区新浜镇上虞路168号3、4号厂房 </t>
+          <t xml:space="preserve">闵行区吴泾镇江川东路388号 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-01-18 </t>
+          <t xml:space="preserve">2020-08-07 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-14 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a760ebe6-99c6-47b3-9656-1c411fd2f786&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5e6e4b26-c960-498f-9969-ce1d6c7fb470&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>年产2亿支一次性自毁式安全注射器技术改造项目</t>
+          <t>新增年产配电柜300台技改项目</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>826d5a8b-a861-4e7e-870b-decaaebb7bd0</t>
+          <t>a712a572-64eb-468c-b072-5b36ad484e8f</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区南桥镇沪杭公路1888号5幢厂房 </t>
+          <t xml:space="preserve">金山区山阳镇山通路988号4幢1层南侧、6幢 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=826d5a8b-a861-4e7e-870b-decaaebb7bd0&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a712a572-64eb-468c-b072-5b36ad484e8f&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>上海精真酒店设备工程有限公司建设项目</t>
+          <t>上海珩强工贸有限公司生产项目</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>7e0f59c2-c488-40a1-bb9e-233e8c9e3622</t>
+          <t>a481ba32-3a80-4ac3-9a5a-f49916008dfc</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区余山镇吉业2455幢一层 </t>
+          <t xml:space="preserve">浦东新区惠南镇园西路99 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=7e0f59c2-c488-40a1-bb9e-233e8c9e3622&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a481ba32-3a80-4ac3-9a5a-f49916008dfc&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>上海申旺汽车配件有限公司建设项目</t>
+          <t>上海火宝汽车租赁有限公司项目</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9d105723-8d15-498e-b779-7d13ce0f3743</t>
+          <t>122b9530-d5ce-4a13-993d-bb3b29d01044</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">虹口区 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区奉城镇上海头桥发展（集团）有限公司南幸福路6号 </t>
+          <t xml:space="preserve">虹口区广中路街道中兴路118-124号1层商铺 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9d105723-8d15-498e-b779-7d13ce0f3743&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=122b9530-d5ce-4a13-993d-bb3b29d01044&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>上海孚迅机器人有限公司建设项目</t>
+          <t>上海科瞻橡胶科技有限公司建设项目</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ad3e866a-4417-4022-88d2-9ce85935bc49</t>
+          <t>521826cf-2a03-40f4-ae3c-c42d81e0ac08</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">普陀区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">普陀区桃浦街道武威路88弄19号2楼A区219室 </t>
+          <t xml:space="preserve">奉贤区庄行镇长庭路18号2幢 </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ad3e866a-4417-4022-88d2-9ce85935bc49&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=521826cf-2a03-40f4-ae3c-c42d81e0ac08&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>上海闪联商业管理有限公司建设项目</t>
+          <t>施乐百机电设备（上海）有限公司扩建项目</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>80f691b8-5802-40d3-9e28-f09ff893437f</t>
+          <t>a760ebe6-99c6-47b3-9656-1c411fd2f786</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1044,155 +1044,155 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区松江工业区卖新公路836号7幢2层A区 </t>
+          <t xml:space="preserve">松江区新浜镇上虞路168号3、4号厂房 </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-01-18 </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=80f691b8-5802-40d3-9e28-f09ff893437f&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a760ebe6-99c6-47b3-9656-1c411fd2f786&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>上海嘉强自动化技术有限公司项目</t>
+          <t>新建上海经苏州至湖州铁路</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>083c7b0c-d67c-48ae-8e22-0281c74a7b70</t>
+          <t>44a0fe1b-801f-41a2-ab76-3cf1d543349c</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">市局 </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区松江工业区东宝路8号 </t>
+          <t xml:space="preserve">闵行区,松江区,青浦区另涉及苏州市、湖州市 </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-07 </t>
+          <t xml:space="preserve">2019-08-06 </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-14 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=083c7b0c-d67c-48ae-8e22-0281c74a7b70&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=44a0fe1b-801f-41a2-ab76-3cf1d543349c&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>夏弗纳电磁兼容（上海）有限公司扩建项目</t>
+          <t>崇明岛堡镇港北等四座水闸外移工程</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a38d1141-795f-494c-9588-c3325dfbb6d1</t>
+          <t>62269575-fc01-4b00-aa83-9149a3f309fb</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区川沙新镇创业路565 </t>
+          <t xml:space="preserve">崇明区堡镇G40东侧00 </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-07 </t>
+          <t xml:space="preserve">2019-08-21 </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-14 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a38d1141-795f-494c-9588-c3325dfbb6d1&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=62269575-fc01-4b00-aa83-9149a3f309fb&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>通标检测技术（上海）有限公司半导体实验室项目</t>
+          <t>长谊特种纸（上海）有限公司扩建项目</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1a2987e3-a7ba-462f-b66d-fc578e72d667</t>
+          <t>83a173c0-3a27-4258-8438-77e4523e2a42</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">宝山区 </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区康桥镇康威路299号1幢3层313室 </t>
+          <t xml:space="preserve">宝山区宝山城市工业园区丰翔1369 </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-07 </t>
+          <t xml:space="preserve">2019-08-21 </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-14 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=1a2987e3-a7ba-462f-b66d-fc578e72d667&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=83a173c0-3a27-4258-8438-77e4523e2a42&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>上海宏执五金制品有限公司新建项目</t>
+          <t>通标检测技术（上海）有限公司半导体实验室项目</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>c6680d66-0598-4391-9f63-9b87249aed18</t>
+          <t>1a2987e3-a7ba-462f-b66d-fc578e72d667</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区四团镇新四平公路2779号5幢1层 </t>
+          <t xml:space="preserve">浦东新区康桥镇康威路299号1幢3层313室 </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1207,29 +1207,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c6680d66-0598-4391-9f63-9b87249aed18&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=1a2987e3-a7ba-462f-b66d-fc578e72d667&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>上海绿新包装材料科技股份有限公司微结构光学包装材料建设项目</t>
+          <t>上海宏执五金制品有限公司新建项目</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6a3f55f3-8d25-4caa-a53f-f2faa3545aaa</t>
+          <t>c6680d66-0598-4391-9f63-9b87249aed18</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区青浦工业区出口加工区崧华路666号 </t>
+          <t xml:space="preserve">奉贤区四团镇新四平公路2779号5幢1层 </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1244,29 +1244,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6a3f55f3-8d25-4caa-a53f-f2faa3545aaa&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c6680d66-0598-4391-9f63-9b87249aed18&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>能源互联网路由器研发基地项目</t>
+          <t>上海绿新包装材料科技股份有限公司微结构光学包装材料建设项目</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5431a882-4f53-4e12-885c-42067e985b78</t>
+          <t>6a3f55f3-8d25-4caa-a53f-f2faa3545aaa</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区 </t>
+          <t xml:space="preserve">青浦区 </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区浦江镇／／工-243地块 </t>
+          <t xml:space="preserve">青浦区青浦工业区出口加工区崧华路666号 </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1281,29 +1281,29 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5431a882-4f53-4e12-885c-42067e985b78&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6a3f55f3-8d25-4caa-a53f-f2faa3545aaa&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>上海永盛包装有限公司</t>
+          <t>能源互联网路由器研发基地项目</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ca44a731-b39e-4a3a-9872-97981e4d75ac</t>
+          <t>5431a882-4f53-4e12-885c-42067e985b78</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区金山工业区天工路285弄29号 </t>
+          <t xml:space="preserve">闵行区浦江镇／／工-243地块 </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1318,29 +1318,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ca44a731-b39e-4a3a-9872-97981e4d75ac&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5431a882-4f53-4e12-885c-42067e985b78&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>上海清林机电有限公司建设项目</t>
+          <t>上海永盛包装有限公司</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>a0d871e6-5c68-44f9-b6b0-7f19fe6c00f1</t>
+          <t>ca44a731-b39e-4a3a-9872-97981e4d75ac</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区奉城镇川南奉公路9218号 </t>
+          <t xml:space="preserve">金山区金山工业区天工路285弄29号 </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1355,29 +1355,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a0d871e6-5c68-44f9-b6b0-7f19fe6c00f1&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ca44a731-b39e-4a3a-9872-97981e4d75ac&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>上海锦源光学镀膜有限公司光学镀膜项目</t>
+          <t>上海清林机电有限公司建设项目</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>c04cd024-2507-4f94-9f8e-8a600088d97c</t>
+          <t>a0d871e6-5c68-44f9-b6b0-7f19fe6c00f1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区马陆镇立新路24弄6号 </t>
+          <t xml:space="preserve">奉贤区奉城镇川南奉公路9218号 </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1392,29 +1392,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c04cd024-2507-4f94-9f8e-8a600088d97c&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a0d871e6-5c68-44f9-b6b0-7f19fe6c00f1&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>上海哨啼贸易有限公司</t>
+          <t>上海锦源光学镀膜有限公司光学镀膜项目</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>eb7ec2cd-e60f-4ebf-baf4-e31e3c28e391</t>
+          <t>c04cd024-2507-4f94-9f8e-8a600088d97c</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区廊下镇新风路2号3幢 </t>
+          <t xml:space="preserve">嘉定区马陆镇立新路24弄6号 </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1429,29 +1429,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=eb7ec2cd-e60f-4ebf-baf4-e31e3c28e391&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c04cd024-2507-4f94-9f8e-8a600088d97c&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>上海衡美洗涤设备有限公司建设项目</t>
+          <t>上海哨啼贸易有限公司</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>f008fcbc-eabb-4bad-987d-9f491ed6225d</t>
+          <t>eb7ec2cd-e60f-4ebf-baf4-e31e3c28e391</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区四团镇平港路883号2＃厂房 </t>
+          <t xml:space="preserve">金山区廊下镇新风路2号3幢 </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1466,29 +1466,29 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f008fcbc-eabb-4bad-987d-9f491ed6225d&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=eb7ec2cd-e60f-4ebf-baf4-e31e3c28e391&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>上海颂一机电有限公司改建项目</t>
+          <t>上海衡美洗涤设备有限公司建设项目</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>b55f0aca-c016-49c9-9872-8b870cf3a05b</t>
+          <t>f008fcbc-eabb-4bad-987d-9f491ed6225d</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区外冈镇恒冠路628号 </t>
+          <t xml:space="preserve">奉贤区四团镇平港路883号2＃厂房 </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1503,19 +1503,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b55f0aca-c016-49c9-9872-8b870cf3a05b&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f008fcbc-eabb-4bad-987d-9f491ed6225d&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>上海佳冷冷弯科技股份有限公司金属结构制品扩建项目</t>
+          <t>上海颂一机电有限公司改建项目</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ba038b24-2641-498c-aea0-d03c3907e39e</t>
+          <t>b55f0aca-c016-49c9-9872-8b870cf3a05b</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区徐行镇兴顺路558号厂区3＃、5＃、6＃厂房 </t>
+          <t xml:space="preserve">嘉定区外冈镇恒冠路628号 </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1540,29 +1540,29 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ba038b24-2641-498c-aea0-d03c3907e39e&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b55f0aca-c016-49c9-9872-8b870cf3a05b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>米思米直线导轨加工项目</t>
+          <t>上海佳冷冷弯科技股份有限公司金属结构制品扩建项目</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5e71920e-1375-456d-8917-54fe55984e55</t>
+          <t>ba038b24-2641-498c-aea0-d03c3907e39e</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区工业综合开发区（奉浦街道）环城北路999号10号楼 </t>
+          <t xml:space="preserve">嘉定区徐行镇兴顺路558号厂区3＃、5＃、6＃厂房 </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1577,29 +1577,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5e71920e-1375-456d-8917-54fe55984e55&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ba038b24-2641-498c-aea0-d03c3907e39e&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>上海志壮实业有限公司租赁厂房项目</t>
+          <t>米思米直线导轨加工项目</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>a77762d0-dfc6-4904-af07-3c88983b2077</t>
+          <t>5e71920e-1375-456d-8917-54fe55984e55</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区青浦工业区出口加工区崧盈路1229、1239号2幢 </t>
+          <t xml:space="preserve">奉贤区工业综合开发区（奉浦街道）环城北路999号10号楼 </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1614,29 +1614,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a77762d0-dfc6-4904-af07-3c88983b2077&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5e71920e-1375-456d-8917-54fe55984e55&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>上海星泰源汽车服务有限公司新建项目</t>
+          <t>上海志壮实业有限公司租赁厂房项目</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6a0cea28-43cf-423c-9c05-9455b38de648</t>
+          <t>a77762d0-dfc6-4904-af07-3c88983b2077</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区 </t>
+          <t xml:space="preserve">青浦区 </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区梅龙镇虹梅南路3398号内 </t>
+          <t xml:space="preserve">青浦区青浦工业区出口加工区崧盈路1229、1239号2幢 </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6a0cea28-43cf-423c-9c05-9455b38de648&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a77762d0-dfc6-4904-af07-3c88983b2077&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>上海绩翔科技发展有限公司建设项目</t>
+          <t>上海星泰源汽车服务有限公司新建项目</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6195d1d6-9f2c-4893-83b0-55876d7f805b</t>
+          <t>6a0cea28-43cf-423c-9c05-9455b38de648</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区徐行镇浏翔公路55551幢1号厂房1层A区 </t>
+          <t xml:space="preserve">闵行区梅龙镇虹梅南路3398号内 </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1688,29 +1688,29 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6195d1d6-9f2c-4893-83b0-55876d7f805b&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6a0cea28-43cf-423c-9c05-9455b38de648&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>上海赫派汽车服务有限公司项目</t>
+          <t>上海绩翔科技发展有限公司建设项目</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>f0837c96-20b3-4d55-9330-fc7791dc8f97</t>
+          <t>6195d1d6-9f2c-4893-83b0-55876d7f805b</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区张庙街道呼兰路445 号4 号库 </t>
+          <t xml:space="preserve">嘉定区徐行镇浏翔公路55551幢1号厂房1层A区 </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f0837c96-20b3-4d55-9330-fc7791dc8f97&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6195d1d6-9f2c-4893-83b0-55876d7f805b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>马勒投资（中国）有限公司空调滤测试项目</t>
+          <t>上海赫派汽车服务有限公司项目</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6f6fdae1-5bc8-406a-9ad0-076387602d02</t>
+          <t>f0837c96-20b3-4d55-9330-fc7791dc8f97</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">宝山区 </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区工业综合开发区（奉浦街道）环城北路1299号3幢西侧 </t>
+          <t xml:space="preserve">宝山区张庙街道呼兰路445 号4 号库 </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1762,19 +1762,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6f6fdae1-5bc8-406a-9ad0-076387602d02&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f0837c96-20b3-4d55-9330-fc7791dc8f97&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>晟碟半导体（上海）有限公司三期及综合配套项目</t>
+          <t>上海神舟新能源发展有限公司电池生产线技术改造项目</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5e6e4b26-c960-498f-9969-ce1d6c7fb470</t>
+          <t>019c3082-6ee8-4e17-b58c-f64160b97ec7</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1784,478 +1784,478 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区吴泾镇江川东路388号 </t>
+          <t xml:space="preserve">闵行区浦江镇江月路505号 </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-07 </t>
+          <t xml:space="preserve">2019-04-09 </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-14 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5e6e4b26-c960-498f-9969-ce1d6c7fb470&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=019c3082-6ee8-4e17-b58c-f64160b97ec7&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>年产螺杆机机箱3600套钣金制造加工项目</t>
+          <t>马勒投资（中国）有限公司空调滤测试项目</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>98c0029b-5b67-48e7-a587-c7f0d7e8ea67</t>
+          <t>6f6fdae1-5bc8-406a-9ad0-076387602d02</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区枫泾镇钱明东路1509弄49号 </t>
+          <t xml:space="preserve">奉贤区工业综合开发区（奉浦街道）环城北路1299号3幢西侧 </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-07 </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-14 </t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=98c0029b-5b67-48e7-a587-c7f0d7e8ea67&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6f6fdae1-5bc8-406a-9ad0-076387602d02&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>上海中匡生物科技有限公司（调整）</t>
+          <t>上汽通用汽车有限公司C1平台中高级车及其变型车技术改造项目</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>f6251af4-734d-4a77-9d7e-6ebd0a9bc5c2</t>
+          <t>45b08f62-0c9a-44d4-b4d5-da0ae6071786</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区生物科技园区（金海社区）汇丰北路1515弄5号6幢1楼、2楼 </t>
+          <t xml:space="preserve">浦东新区金桥经济技术开发区金穗路567号（凯迪拉克工厂）和申江路1500号（北厂区） </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-06-21 </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f6251af4-734d-4a77-9d7e-6ebd0a9bc5c2&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=45b08f62-0c9a-44d4-b4d5-da0ae6071786&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>上海昶盟实业有限公司项目</t>
+          <t>年产40000台电机、泵等产品新增喷漆工艺技改及食堂项目</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>83b6e24a-30b1-43f4-8562-b03c8ade26ab</t>
+          <t>e8ca96c7-2448-4291-ae4a-7e419a7e4a3e</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区奉城镇奉柘公路999号 </t>
+          <t xml:space="preserve">金山区金山工业区金百路466号 </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-06-27 </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=83b6e24a-30b1-43f4-8562-b03c8ade26ab&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e8ca96c7-2448-4291-ae4a-7e419a7e4a3e&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>上海佐纯环保设备有限公司搬迁项目</t>
+          <t>年产4000吨石油化工管线阀、2000吨电站专用阀新增喷漆、抛丸等技改项目</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>342ea27f-e646-4b04-90ce-ab5f422f3cb0</t>
+          <t>a52cfe20-3fa1-464a-9043-d9868874f70b</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区安亭镇开发西路28号 </t>
+          <t xml:space="preserve">金山区金山工业区金百路398号 </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-06-27 </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=342ea27f-e646-4b04-90ce-ab5f422f3cb0&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a52cfe20-3fa1-464a-9043-d9868874f70b&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>晋康精密机械（上海）有限公司迁建项目</t>
+          <t>上海耐邦泵业制造有限公司新增喷漆线、浸漆线、木箱包装项目</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>37819ff6-2ea4-497a-82b7-cac28544c2be</t>
+          <t>bf3ca1d4-a7e2-4058-a77d-e902a5df16e9</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区华亭镇华博路500号12号楼一楼及门卫房左侧公共区域 </t>
+          <t xml:space="preserve">金山区金山工业区通业路211号 </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-06-27 </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=37819ff6-2ea4-497a-82b7-cac28544c2be&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=bf3ca1d4-a7e2-4058-a77d-e902a5df16e9&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>博阳生物科技（上海）有限公司改扩建项目</t>
+          <t>上海冰玥制冷科技有限公司建设项目</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>273b542b-1b23-42ff-bab1-64f8f12d37b3</t>
+          <t>c84e9f19-223f-49c7-8884-2a1fefebbca7</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区张江高科技园区蔡伦路88号1幢一楼、三楼、五楼 </t>
+          <t xml:space="preserve">嘉定区马陆镇丰饶路100号 </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-06-27 </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=273b542b-1b23-42ff-bab1-64f8f12d37b3&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c84e9f19-223f-49c7-8884-2a1fefebbca7&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>上海石昶实业有限公司建设项目</t>
+          <t>上海松华药业有限公司搬迁项目</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5d621f2b-656c-4cd5-ace7-b3b49df6505c</t>
+          <t>3ddeb073-6b7a-4ef0-828b-72f16e176929</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇南奉公路4306号3栋 </t>
+          <t xml:space="preserve">松江区松江工业区李高路515号1#厂房 </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-06-27 </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5d621f2b-656c-4cd5-ace7-b3b49df6505c&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3ddeb073-6b7a-4ef0-828b-72f16e176929&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>废弃物环保资源化技改项目</t>
+          <t>扩建年产航空发动机高温合金新材料产品2000吨生产项目</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>a3e20d4c-eac5-4792-8385-7fb80a72e35f</t>
+          <t>92cad8e9-8ee9-4317-ab68-9e114d902c86</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区上海化学工业区奉贤分区浦卫公路9888号 </t>
+          <t xml:space="preserve">金山区枫泾镇兴豪路89 </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-06-28 </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a3e20d4c-eac5-4792-8385-7fb80a72e35f&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=92cad8e9-8ee9-4317-ab68-9e114d902c86&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>上海美芝欧加电器有限公司租赁厂房项目</t>
+          <t>集成电路制造用300毫米硅片技术研发与产业化二期项目</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>204185fe-7f12-4921-bb2f-1b274c5dcb07</t>
+          <t>34413210-da1c-4e19-8e4d-5e9894ee70b2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">临港地区开发建设管委会 </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区华新镇华志路1588号7幢西侧1、2层 </t>
+          <t xml:space="preserve">浦东新区泥城镇云水路1000号 </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2019-07-08 </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">- </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=204185fe-7f12-4921-bb2f-1b274c5dcb07&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=34413210-da1c-4e19-8e4d-5e9894ee70b2&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>超高速电梯研发及智能化生产技术改造项目</t>
+          <t>上海重诚机械设备有限公司码头建设项目</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1739e007-1dd2-4d0a-bb8b-99813db47715</t>
+          <t>dd951732-7261-477f-98e7-7f1966d7211f</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区青浦工业园区崧泽大道10388号 </t>
+          <t xml:space="preserve">崇明区城桥镇滨洪路128号 </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=1739e007-1dd2-4d0a-bb8b-99813db47715&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=dd951732-7261-477f-98e7-7f1966d7211f&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>新型催化剂实验室项目</t>
+          <t>逸循塑胶（上海）有限公司建设项目</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0eedb04f-76aa-4297-a364-a94f49ee208c</t>
+          <t>d54628b0-ae5b-4794-a2a4-adb77b2dbc43</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区九亭镇连富路763号6幢2层207和208室 </t>
+          <t xml:space="preserve">奉贤区西渡街道沪杭公路755号万和工业园区5栋 </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=0eedb04f-76aa-4297-a364-a94f49ee208c&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d54628b0-ae5b-4794-a2a4-adb77b2dbc43&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>上海贝印刃具有限公司改扩建项目</t>
+          <t>上海市崇明县李华建材经营部码头建设项目</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>a8b2b919-e387-41ee-996a-40ed54f8aff9</t>
+          <t>85a3b299-e0ce-48d7-84d1-7bf7f39a602b</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区松江工业区繁华路155号 </t>
+          <t xml:space="preserve">崇明区城桥镇／／湾南村友谊6队 </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a8b2b919-e387-41ee-996a-40ed54f8aff9&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=85a3b299-e0ce-48d7-84d1-7bf7f39a602b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>北斗高精度基础器件及终端装备产能建设项目</t>
+          <t>上海维思特印务包装有限公司租赁厂房项目</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5ac8280f-b67a-46e1-a25f-886c9389ef60</t>
+          <t>8a1e6776-c6a3-40c4-a7c8-4817f562c5d0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2265,848 +2265,848 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区青浦工业区出口加工区崧盈路577号B-C座1层、2层，B座3层、6层和E座5层、6层 </t>
+          <t xml:space="preserve">青浦区青浦工业区出口加工区崧盈路1078弄140号1幢101室 </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5ac8280f-b67a-46e1-a25f-886c9389ef60&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=8a1e6776-c6a3-40c4-a7c8-4817f562c5d0&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>智能时空信息技术研发中心建设项目</t>
+          <t>上海欣旺水利测量有限公司码头项目</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>c5c91b65-60ca-492e-88a6-7847a82f1b02</t>
+          <t>25b6dd31-2a22-427e-8091-de06f20496ee</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区青浦工业区出口加工区崧盈路577号B座4-5层和C座3-4层 </t>
+          <t xml:space="preserve">崇明区长兴岛／／创建港航道的右侧，从创建港水闸向南300m（大堤转角处向南50m） </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c5c91b65-60ca-492e-88a6-7847a82f1b02&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=25b6dd31-2a22-427e-8091-de06f20496ee&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>上海彦波汽车修理有限公司建设项目</t>
+          <t>上海市崇明县瀛华建材经营部码头项目</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cd5f312b-ad64-4462-ab9f-5a7c59fb51eb</t>
+          <t>c9485789-657c-41e8-919c-cc104031e56c</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区康桥镇秀沿路285-289号5幢 </t>
+          <t xml:space="preserve">崇明区绿华镇新建路601号 </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=cd5f312b-ad64-4462-ab9f-5a7c59fb51eb&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c9485789-657c-41e8-919c-cc104031e56c&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>睹煜（上海）信息服务有限公司实验室项目</t>
+          <t>上海远祚医药科技有限公司新建项目</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2db316e2-ed11-4656-9c96-d1912489b199</t>
+          <t>1f17fafa-d259-45b7-b6c1-8869c6f75887</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区马陆镇嘉新公路1001号1幢3层D区域 </t>
+          <t xml:space="preserve">奉贤区南桥镇望园路1888号3 幢 603 室、605 室 </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2db316e2-ed11-4656-9c96-d1912489b199&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=1f17fafa-d259-45b7-b6c1-8869c6f75887&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>上海丽达商标制造有限公司建设项目</t>
+          <t>更赫精密机械（上海）有限公司建设项目</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9140f505-2b65-4bf4-b861-c683194d2004</t>
+          <t>a2e1c2fa-7ca5-4c62-a1b6-e0a0cdf65bad</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区奉城镇新奉公路4185号 </t>
+          <t xml:space="preserve">嘉定区徐行镇／大石皮村69号10幢一层 </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9140f505-2b65-4bf4-b861-c683194d2004&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a2e1c2fa-7ca5-4c62-a1b6-e0a0cdf65bad&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>上海润信汽车销售服务有限公司新建项目</t>
+          <t>上海农飞水稻种植专业合作社码头项目</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>84fceffd-0793-449f-afe8-860099b4c392</t>
+          <t>4fa120c9-a541-4f55-8627-514aa3a674da</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区顾村镇宝安公路828号 </t>
+          <t xml:space="preserve">金山区廊下镇南陆村庄家3040号 </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=84fceffd-0793-449f-afe8-860099b4c392&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=4fa120c9-a541-4f55-8627-514aa3a674da&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>上海喜富餐饮管理有限公司项目</t>
+          <t>骨水泥和搅拌器产品生产建设项目（调整）</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>474196e9-445c-4a7b-8877-a6eeffea995f</t>
+          <t>00553502-6041-43a6-ba6a-b8df0adea977</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区九亭镇盛龙路951号10幢2层及7层704、705、706 </t>
+          <t xml:space="preserve">浦东新区宣桥镇宣秋路139号2 幢2 层 </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-07 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-14 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=474196e9-445c-4a7b-8877-a6eeffea995f&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=00553502-6041-43a6-ba6a-b8df0adea977&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>上海云峰汽车销售服务有限公司宝山分公司改扩建项目</t>
+          <t>上海卡帕汽车配件有限公司改扩建项目</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>c64784aa-6a44-44e8-a1c2-e53458ab4922</t>
+          <t>3043f05e-b062-47bc-bf93-c36a211ec266</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区杨行镇宝杨路2050号2幢 </t>
+          <t xml:space="preserve">浦东新区川沙新镇川六公路1158号1幢、2幢 </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c64784aa-6a44-44e8-a1c2-e53458ab4922&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3043f05e-b062-47bc-bf93-c36a211ec266&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>上海凤全模具制造厂新建项目</t>
+          <t>上海典向自动化科技有限公司建设项目</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6a4b8d77-1b8f-4e6d-a142-3a3fd36a7095</t>
+          <t>b9e027ec-f30a-404c-a874-f3eaf2068d00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区川沙新镇鹿吉路93-5号 </t>
+          <t xml:space="preserve">嘉定区外冈镇恒翔路55号7幢一层A区 </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6a4b8d77-1b8f-4e6d-a142-3a3fd36a7095&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b9e027ec-f30a-404c-a874-f3eaf2068d00&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>上海海天金属制品厂建设项目</t>
+          <t>上海希形科技有限公司建设项目</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2a303bb7-8b49-4b21-bebf-d9642041c6f2</t>
+          <t>eef32410-a85c-43ad-97d1-674318d57a97</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区外冈镇沪宜公路5796号1幢A区 </t>
+          <t xml:space="preserve">闵行区颛桥镇中春路1288号13幢一层 </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2a303bb7-8b49-4b21-bebf-d9642041c6f2&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=eef32410-a85c-43ad-97d1-674318d57a97&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>上海代庆机械设备有限公司建设项目</t>
+          <t>上海柏拓机电设备有限公司新建项目</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>72ccec6a-8c8a-407f-9a89-a31de4f5e28d</t>
+          <t>5932a534-d333-4957-8a85-fb733e6dd059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇林东路209号 </t>
+          <t xml:space="preserve">松江区松江工业区申港路3802号48幢一楼 </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=72ccec6a-8c8a-407f-9a89-a31de4f5e28d&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5932a534-d333-4957-8a85-fb733e6dd059&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>上海萃轩展览展示制作有限公司建设项目</t>
+          <t>上海金山老李废旧物资回收有限公司码头项目</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>9d1ff93c-8de6-48fb-b091-eb296bb53286</t>
+          <t>2f6ad864-598e-4ca7-bf3e-8b027856dfec</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇金钱公路4801、4821号 </t>
+          <t xml:space="preserve">金山区张堰镇甪里村5组1幢 </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9d1ff93c-8de6-48fb-b091-eb296bb53286&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2f6ad864-598e-4ca7-bf3e-8b027856dfec&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>上海兆为金属有限公司项目</t>
+          <t>催化剂业务线CPC实验室及配套设施项目</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>b0ca8750-22d3-47fe-8541-2a7139d18ab1</t>
+          <t>405057c5-abf9-4e63-8d57-34481c6bb17a</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇金钱公路4399号 </t>
+          <t xml:space="preserve">闵行区莘庄工业区春东路68号 </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b0ca8750-22d3-47fe-8541-2a7139d18ab1&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=405057c5-abf9-4e63-8d57-34481c6bb17a&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>创新研发中心项目</t>
+          <t>年产红木家具500套生产项目</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9ad35c34-eef3-45f1-8929-eda6b891db74</t>
+          <t>438a3cc2-e02c-4daf-b937-aa5aa4703e3c</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区莘庄工业区闵行区莘庄工业区01单元MHPO-0501单元30A／31A街坊30B-03A-1地块（闵行区研发产业-13号） </t>
+          <t xml:space="preserve">金山区山阳镇亭卫公路1909号 </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9ad35c34-eef3-45f1-8929-eda6b891db74&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=438a3cc2-e02c-4daf-b937-aa5aa4703e3c&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>杨浦区中心医院临床研究与转化医学中心实验室</t>
+          <t>上海永壬建材有限公司码头项目</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>be7c3670-9974-4689-973e-ed7fd5dc1332</t>
+          <t>7baf8794-2763-4eb6-a071-1dcf6c329318</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">杨浦区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">杨浦区定海路街道波阳路16号23幢101室 </t>
+          <t xml:space="preserve">金山区朱泾镇金张公路6565号 </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=be7c3670-9974-4689-973e-ed7fd5dc1332&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=7baf8794-2763-4eb6-a071-1dcf6c329318&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>上海伊元数码科技发展有限公司新建项目</t>
+          <t>上海飒浪生物技术有限公司改扩建项目</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ae15bd5b-1dfb-48e9-8430-80fcc1bc5e62</t>
+          <t>3b38bd4f-0fcf-4393-8e43-43c3a3b2f4f2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区吴泾镇虹梅南路4999弄15号楼一层C3／D／E室 </t>
+          <t xml:space="preserve">奉贤区生物科技园区（金海社区）望园路2066号3幢2层、5层东侧 </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ae15bd5b-1dfb-48e9-8430-80fcc1bc5e62&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3b38bd4f-0fcf-4393-8e43-43c3a3b2f4f2&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>上海桐君电子有限公司建设项目</t>
+          <t>重型燃气轮机试验能力条件建设项目</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>82131fcb-9f7e-48fb-a10a-8c79c24f440a</t>
+          <t>0fef9d3b-884e-43ed-ac7b-b2a081b9ad85</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">市局 </t>
+          <t xml:space="preserve">临港地区开发建设管委会 </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区川沙新镇利航路468号 </t>
+          <t xml:space="preserve">浦东新区临港云水路以东,妙香路以西，沧海路以南，海堤路以北 </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-20 </t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=82131fcb-9f7e-48fb-a10a-8c79c24f440a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=0fef9d3b-884e-43ed-ac7b-b2a081b9ad85&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>上海成哲机械制造有限公司项目</t>
+          <t>上海市区唐山（电气）110kV输变电工程</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>184671df-92a6-4d0b-b13a-3c182730123b</t>
+          <t>3fcce123-65d0-415e-8740-ddd0f00c1eae</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">虹口区 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇罗神路282号 </t>
+          <t xml:space="preserve">虹口区提篮桥街道唐山路／ </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=184671df-92a6-4d0b-b13a-3c182730123b&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3fcce123-65d0-415e-8740-ddd0f00c1eae&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>上海联亿机电科技有限公司建设项目</t>
+          <t>上海市区岳州110千伏输变电工程</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>c2bf366e-bdb2-42d6-a07c-5db5938c0807</t>
+          <t>2a865b40-0899-4d44-9040-14bfe730bf6f</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">虹口区 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇李窑村1260 </t>
+          <t xml:space="preserve">虹口区嘉兴路街道海门路／ </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c2bf366e-bdb2-42d6-a07c-5db5938c0807&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2a865b40-0899-4d44-9040-14bfe730bf6f&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>上海驿研制冷设备制造有限公司项目</t>
+          <t>上海冬雷脑科医院2台医用X射线装置使用项目</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>323aa016-d2c4-4fb5-b73c-539541a88fd8</t>
+          <t>931e643d-2e07-405a-88a4-9ca855bd7752</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">青浦区 </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇罗神路282号 </t>
+          <t xml:space="preserve">青浦区徐泾镇华徐公路988号C幢一层 </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=323aa016-d2c4-4fb5-b73c-539541a88fd8&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=931e643d-2e07-405a-88a4-9ca855bd7752&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>上海忝垚机械有限公司建设项目</t>
+          <t>上海驰法电子科技有限公司项目</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5b3e7507-acd7-47b3-a36b-d1ed5ebead0f</t>
+          <t>d8b13f25-3f65-48bb-878c-3e822595ffbd</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇罗神496号 </t>
+          <t xml:space="preserve">松江区洞泾镇洞凯路529号4幢3楼 </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5b3e7507-acd7-47b3-a36b-d1ed5ebead0f&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d8b13f25-3f65-48bb-878c-3e822595ffbd&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>上海林连塑料包装有限公司建设项目</t>
+          <t>上海迎联模塑科技有限公司迁建项目</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>09687db4-fbe5-4f0d-83a0-528aea0b90f2</t>
+          <t>24c2ef23-8ad6-4093-b1ad-6c72053afffb</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">青浦区 </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区四团镇海奕路628弄39号2号楼 </t>
+          <t xml:space="preserve">青浦区青浦工业区出口加工区崧华路1388号1幢 </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=09687db4-fbe5-4f0d-83a0-528aea0b90f2&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=24c2ef23-8ad6-4093-b1ad-6c72053afffb&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>上海席亚高分子材料有限公司建设项目</t>
+          <t>上海汇封液压机械有限公司扩建项目</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>baf6c538-fe43-4441-8be3-37e72c08b53a</t>
+          <t>8768ac17-55b0-4bb3-99d9-bab35eea14b8</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区川沙新镇置业路111号3号楼2楼 </t>
+          <t xml:space="preserve">松江区松江工业区东兴路336号1幢一层A区 </t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=baf6c538-fe43-4441-8be3-37e72c08b53a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=8768ac17-55b0-4bb3-99d9-bab35eea14b8&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>上海舒若空调设备有限公司建设项目</t>
+          <t>上海福新化工有限公司定制厂房项目</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>852290a1-6079-4478-95f4-b86ce5acb4f6</t>
+          <t>1dd66d70-ba4a-4bf3-a52b-4d62e7c55b07</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3116,330 +3116,330 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇金王村1712幢 </t>
+          <t xml:space="preserve">奉贤区上海化学工业区奉贤分区楚华支路419号 </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=852290a1-6079-4478-95f4-b86ce5acb4f6&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=1dd66d70-ba4a-4bf3-a52b-4d62e7c55b07&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>上海邦宝机械设备有限公司建设项目</t>
+          <t>上海仁烜医疗器械有限公司</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3a13bed4-2c1b-4ac7-a9ce-cbc478d074b4</t>
+          <t>401d18bc-d56d-4107-836e-c009200581e6</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇南奉公路1785号1＃、2＃、3＃车间 </t>
+          <t xml:space="preserve">松江区松江工业区民益路1698U号3层 </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3a13bed4-2c1b-4ac7-a9ce-cbc478d074b4&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=401d18bc-d56d-4107-836e-c009200581e6&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>上海晓杰五金厂建设项目</t>
+          <t>含油污泥处置装置及配套设备生产建设项目</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>d5f1c89a-8800-4b40-b600-409ad3004130</t>
+          <t>caa56ccb-c85b-430b-a094-97dc79a140e4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区奉城镇服民路188号 </t>
+          <t xml:space="preserve">金山区枫泾镇万枫公路3666弄5号厂房 </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-06 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-13 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d5f1c89a-8800-4b40-b600-409ad3004130&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=caa56ccb-c85b-430b-a094-97dc79a140e4&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>上海沃勋洗涤设备有限公司新建项目</t>
+          <t>上海畦开检测技术有限公司实验室建设项目</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>974a8639-a019-4b50-bc90-75a3a7a5003a</t>
+          <t>1a0de74f-a66a-425b-96ef-2017ae115ecd</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区四团镇新四平公路2666号19幢 </t>
+          <t xml:space="preserve">闵行区颛桥镇颛兴东路1277弄98号 </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=974a8639-a019-4b50-bc90-75a3a7a5003a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=1a0de74f-a66a-425b-96ef-2017ae115ecd&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>天弩食品安全生产质量提升技术改造项目</t>
+          <t>上海伍瑾实业有限公司建设项目</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>7941f93f-030b-4a37-a28b-608061eb27b1</t>
+          <t>5d76362a-7688-4650-b0b6-403fb55c8eeb</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区朱家角镇朱枫公路1201、1233、1257号 </t>
+          <t xml:space="preserve">嘉定区徐行镇曹胜路688号5幢2层A区 </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=7941f93f-030b-4a37-a28b-608061eb27b1&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5d76362a-7688-4650-b0b6-403fb55c8eeb&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>上海奕鑫医学检验实验室有限公司建设项目</t>
+          <t>上海兴路汽车零部件有限公司建设项目</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>f648a0fe-9021-4e70-8792-ca13e6355c85</t>
+          <t>0b828b91-fb8f-4479-8faa-5b8cc4cefd02</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区南翔镇惠平路801号4幢1层101室 </t>
+          <t xml:space="preserve">奉贤区金汇镇光泰路1999号 </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f648a0fe-9021-4e70-8792-ca13e6355c85&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=0b828b91-fb8f-4479-8faa-5b8cc4cefd02&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>上海锦江汽车服务有限公司修理三厂建设项目</t>
+          <t>奉贤海上风电场项目</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0be17149-eaf8-499a-b28a-45c3c7e4eb23</t>
+          <t>72790334-c8c2-4dba-bcf0-1f56f31c2085</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">普陀区 </t>
+          <t xml:space="preserve">市局 </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">普陀区长风街道泸定路646号 </t>
+          <t xml:space="preserve">奉贤区奉贤区杭州湾北部海域 </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=0be17149-eaf8-499a-b28a-45c3c7e4eb23&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=72790334-c8c2-4dba-bcf0-1f56f31c2085&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>美吉分子检测实验室项目</t>
+          <t>上海雅米鼎宏业建设发展有限公司建设项目</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>a45b32ad-dbc6-49d6-aca1-dc43d49467bd</t>
+          <t>ee700483-7a18-43ad-9e9e-d005dec0171d</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区周浦镇国际医学园区康新公路3399 号时代医创园3 号楼1~4层 </t>
+          <t xml:space="preserve">奉贤区奉城镇协新路58号 </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a45b32ad-dbc6-49d6-aca1-dc43d49467bd&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ee700483-7a18-43ad-9e9e-d005dec0171d&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>上海佳唯光电科技有限公司新增喷漆项目</t>
+          <t>上海昭和电子化学材料有限公司高纯度电子气体扩建项目</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>272c3fcd-b8ee-4a53-b7d7-9e5ea5434218</t>
+          <t>2b8a01f1-58d3-458d-9ecc-bfe44e9d709f</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">市局 </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区金山工业区金飞路686号 </t>
+          <t xml:space="preserve">奉贤区上海化学工业区奉贤分区北银河路28号 </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=272c3fcd-b8ee-4a53-b7d7-9e5ea5434218&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2b8a01f1-58d3-458d-9ecc-bfe44e9d709f&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>上海彭越机械科技有限公司建设项目</t>
+          <t>上海合楚钢铁发展有限公司废旧资源回收项目</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>c34bc0fc-fcb4-4a0d-bac5-9c5910c1679b</t>
+          <t>6fbabc07-e3c9-4d59-8af4-914b01ca3ca3</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3449,848 +3449,848 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区四团镇海奕路328号2幢一层 </t>
+          <t xml:space="preserve">奉贤区青村镇南奉公路4858号 </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c34bc0fc-fcb4-4a0d-bac5-9c5910c1679b&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6fbabc07-e3c9-4d59-8af4-914b01ca3ca3&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>奕尧汽车维修（上海）有限公司建设项目</t>
+          <t>芳烃烷基化中试装置（技改）项目</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>e4c7b618-1186-43b6-97e2-c16d3596c9cd</t>
+          <t>c620632c-1116-4922-8394-6905e1260a7d</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">市局 </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区华新镇纪鹤公路3299弄28号2幢 </t>
+          <t xml:space="preserve">奉贤区柘林镇／／上海化学工业区F6地块 </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e4c7b618-1186-43b6-97e2-c16d3596c9cd&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c620632c-1116-4922-8394-6905e1260a7d&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>上海绮娜气动阀门制造有限公司建设项目</t>
+          <t>和元智造精准医疗产业基地建设项目</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>5a9d25c3-fda0-46c8-8e1a-4de03cb706e4</t>
+          <t>94b42514-401a-48e1-864f-bf674016c7f6</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">临港地区开发建设管委会 </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇钱桥社区海农公路688 </t>
+          <t xml:space="preserve">奉贤区海湾镇临港奉贤园区E08-03d地块 </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5a9d25c3-fda0-46c8-8e1a-4de03cb706e4&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=94b42514-401a-48e1-864f-bf674016c7f6&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>上海具全冶金新材料有限公司建设项目</t>
+          <t>上海南菱机械有限公司建设项目</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ad2b36ce-e726-43b9-ab9a-2d0569e89506</t>
+          <t>c05c0b4f-c2ca-4c69-aeae-5ec460f4eb79</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区罗店镇沪太公路6059 </t>
+          <t xml:space="preserve">奉贤区西渡街道奉金路56号2＃楼1层 </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ad2b36ce-e726-43b9-ab9a-2d0569e89506&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c05c0b4f-c2ca-4c69-aeae-5ec460f4eb79&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>上海绿邹检测技术中心新建项目</t>
+          <t>上海市虹口区疾病预防控制中心实验室建设项目</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4cc8b79e-8ab3-4d6e-be5e-11a9f057da99</t>
+          <t>e5cd6ae1-a500-4e99-8190-35ac0ceea68d</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">虹口区 </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区金山卫镇老卫清路197-199号二楼、三楼 </t>
+          <t xml:space="preserve">虹口区提篮桥街道长阳路197号8层、9层、10层 </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=4cc8b79e-8ab3-4d6e-be5e-11a9f057da99&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e5cd6ae1-a500-4e99-8190-35ac0ceea68d&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>上海忆书坊食品有限公司建设项目</t>
+          <t>上海振华重工（集团）股份有限公司双创柔性钣金加工生产线改建项目</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>33ec032c-01d9-4cdd-983a-0ba381ec855d</t>
+          <t>5bba6a51-f078-4bbc-9ec2-48b3149c217f</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区奉城镇奉勉路2号 </t>
+          <t xml:space="preserve">崇明区长兴岛凤滨路666 </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=33ec032c-01d9-4cdd-983a-0ba381ec855d&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5bba6a51-f078-4bbc-9ec2-48b3149c217f&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>上海怡标电镀有限公司技改项目</t>
+          <t>上海水韵金属制品有限公司新建项目</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>bb8f6424-f13f-42af-9929-08193f7d4b3d</t>
+          <t>0a09be01-8251-45ef-84f4-216ca420d0ac</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区徐行镇娄陆路321 </t>
+          <t xml:space="preserve">奉贤区庄行镇沪杭公路1950号1号厂房（部分） </t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=bb8f6424-f13f-42af-9929-08193f7d4b3d&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=0a09be01-8251-45ef-84f4-216ca420d0ac&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>泰克国际（上海）技术橡胶有限公司改扩建项目</t>
+          <t>上海诚佑包装材料有限公司新建项目</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>d72c3e8c-7fe8-4ba0-9415-76174119ece2</t>
+          <t>b4819476-823c-4f79-9ba9-bc7a66454ace</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区松江工业区荣乐东路1536号 </t>
+          <t xml:space="preserve">嘉定区嘉定工业区北和公路1650号、1682号8幢2层A区 </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d72c3e8c-7fe8-4ba0-9415-76174119ece2&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b4819476-823c-4f79-9ba9-bc7a66454ace&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>新建上海延锋座椅有限公司嘉定分公司项目</t>
+          <t>上海浦桑机电实业有限公司新建项目</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7609d6a5-3a41-4978-ac10-b66cff436018</t>
+          <t>bcf6c87a-cae6-4e7c-9f06-4db932e2b4c3</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区安亭镇园福路151号5幢一层A区 </t>
+          <t xml:space="preserve">奉贤区柘林镇新林路1111号第10幢西半区 </t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=7609d6a5-3a41-4978-ac10-b66cff436018&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=bcf6c87a-cae6-4e7c-9f06-4db932e2b4c3&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>金山区廊下镇两网融合中转站建设项目</t>
+          <t>百斯特实业（上海）有限公司迁建项目</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>e3b156d0-2b1a-4b5a-88cc-3180b413255f</t>
+          <t>c38c272e-c946-4db1-894e-f722b303f4fc</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区廊下镇廊华公路 51 弄45 号、9 号 </t>
+          <t xml:space="preserve">松江区小昆山镇港兴路77号5号厂房 </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e3b156d0-2b1a-4b5a-88cc-3180b413255f&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c38c272e-c946-4db1-894e-f722b303f4fc&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>环保型水性涂料、水性UV涂料建设项目</t>
+          <t>爵思（上海）电子科技有限公司建设项目</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4b713921-66b5-4a2f-87c9-79885a707235</t>
+          <t>5426191f-6fa5-427d-8475-818b305a135c</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区金山工业区第二工业区夏盛路578号 </t>
+          <t xml:space="preserve">松江区松江工业区申港路3255号1幢3层301室 </t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=4b713921-66b5-4a2f-87c9-79885a707235&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5426191f-6fa5-427d-8475-818b305a135c&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>上海圣洛琦涂料科技有限公司建设项目</t>
+          <t>上海城建职业学院检测中心实验室项目</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2064b39a-f22f-467d-a290-15e1b5f15227</t>
+          <t>cf65bb8a-20af-4308-8c5d-59886bda9ede</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">杨浦区 </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区新桥镇卖新公路836号1幢406室 </t>
+          <t xml:space="preserve">杨浦区殷行街道军工路2360 </t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2064b39a-f22f-467d-a290-15e1b5f15227&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=cf65bb8a-20af-4308-8c5d-59886bda9ede&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>谷崧医疗器材（上海）有限公司迁建项目</t>
+          <t>侦翔机电科技（上海）有限公司扩建项目</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>9f023443-3f4e-459e-8326-c0ba8dd36eaa</t>
+          <t>2f6471de-977d-440e-a0b6-7e96749e0b5b</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区泗泾镇打铁桥路19号1、2层 </t>
+          <t xml:space="preserve">嘉定区徐行镇勤学路1803幢2楼A区 </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9f023443-3f4e-459e-8326-c0ba8dd36eaa&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2f6471de-977d-440e-a0b6-7e96749e0b5b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>上海润尚光电科技有限公司扩建项目</t>
+          <t>上海博韩电子科技有限公司建设项目</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7119b91e-8efc-4ac0-aa21-01a2e1df63bd</t>
+          <t>5d239877-8a5c-4735-82fa-0d9dc8c4c8f3</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区南翔镇嘉美路1588号3幢 </t>
+          <t xml:space="preserve">奉贤区南桥镇南亭公路1313弄3号 </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=7119b91e-8efc-4ac0-aa21-01a2e1df63bd&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=5d239877-8a5c-4735-82fa-0d9dc8c4c8f3&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>上海新巷工程塑料厂建设项目</t>
+          <t>消毒产品自动化生产线技术改造项目</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>1ef398f5-8730-44fb-a39a-f60fe27cff86</t>
+          <t>a55f10ee-82fc-4b15-91a5-b36374512f89</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区华新镇芦蔡北路1659-1号 </t>
+          <t xml:space="preserve">松江区新桥镇新格路868号2幢2楼、4幢1楼和4幢2楼A区 </t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=1ef398f5-8730-44fb-a39a-f60fe27cff86&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a55f10ee-82fc-4b15-91a5-b36374512f89&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>闸北加油站项目</t>
+          <t>上海日曼洁肤用品有限公司扩建项目</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>020b3151-5401-430c-b795-7be5932a581b</t>
+          <t>369c682f-6a34-485b-b0ef-57571e8685d7</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">静安区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">静安区大宁路街道汶水路15号 </t>
+          <t xml:space="preserve">嘉定区徐行镇大安路1955号4幢 </t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=020b3151-5401-430c-b795-7be5932a581b&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=369c682f-6a34-485b-b0ef-57571e8685d7&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>上海千发精密模具有限公司建设项目</t>
+          <t>新一代先进记忆体封装基板DDR5生产线技术改造项目</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>6a7bea37-f35d-464d-b816-aa2b85ac2cfa</t>
+          <t>fbf987bc-af58-4ee7-88fa-b78e0dddcc63</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区青浦工业园区北青公路9399号4幢-12号、4幢-11号 </t>
+          <t xml:space="preserve">浦东新区张江高科技园区金科路2300号 </t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6a7bea37-f35d-464d-b816-aa2b85ac2cfa&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=fbf987bc-af58-4ee7-88fa-b78e0dddcc63&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>上海名流电气有限公司建设项目</t>
+          <t>上海鎏庄通讯科技有限公司新增生产线项目</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>acce739a-039a-43ce-a520-44d2bd06fd2a</t>
+          <t>cee76ad1-5d50-42e1-8214-63d731ad1a3e</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">青浦区 </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区南翔镇翔江公路963号3幢一层C区 </t>
+          <t xml:space="preserve">青浦区华新镇华丹路859、869号 </t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=acce739a-039a-43ce-a520-44d2bd06fd2a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=cee76ad1-5d50-42e1-8214-63d731ad1a3e&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>上海佳彩永信标识有限公司建设项目</t>
+          <t>上海永肖建筑劳务工程有限公司码头建设项目</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>a2e7075a-9202-4c03-b6ba-aa06942b8c43</t>
+          <t>f2129245-ddab-4820-bee7-9013f373f550</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">崇明区 </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区马陆镇博学路508号4幢一层D区 </t>
+          <t xml:space="preserve">崇明区新村乡新跃新中150 </t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a2e7075a-9202-4c03-b6ba-aa06942b8c43&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f2129245-ddab-4820-bee7-9013f373f550&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>上海渤因生物科技有限公司研发实验室新建项目</t>
+          <t>年产喷熔非织造布350 吨、一次性口罩1 亿只生产建设项目</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ca98e88a-d57b-4f00-b9ff-ad2d039f823a</t>
+          <t>2885adc4-1a20-4991-a934-4664dc95a89d</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区张江高科技园区蔡伦路781号704室 </t>
+          <t xml:space="preserve">金山区山阳镇阳乐路288号2 号楼一楼A 区 </t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ca98e88a-d57b-4f00-b9ff-ad2d039f823a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2885adc4-1a20-4991-a934-4664dc95a89d&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>上海洁淼机械有限公司建设项目</t>
+          <t>新建一次性口罩生产线项目</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ab64f69c-d1e9-4da4-a0c0-277539ee1df7</t>
+          <t>b1f67a71-5ee6-4b50-bada-130e64b243ca</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇浦星公路6995弄356号 </t>
+          <t xml:space="preserve">嘉定区外冈镇恒谐路128号 </t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ab64f69c-d1e9-4da4-a0c0-277539ee1df7&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b1f67a71-5ee6-4b50-bada-130e64b243ca&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>上海爱普食品工业有限公司分公司新增生产线项目</t>
+          <t>年产2000万件纸箱及包装材料配套生产加工项目</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>fcc48e5b-b023-4ced-a568-7b2626093e8e</t>
+          <t>bf54fb95-2a33-4a22-abc2-262b493c81cc</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区罗店镇祁北东路36号 </t>
+          <t xml:space="preserve">金山区吕巷镇建乐路691弄20号西侧 </t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-12 </t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-19 </t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=fcc48e5b-b023-4ced-a568-7b2626093e8e&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=bf54fb95-2a33-4a22-abc2-262b493c81cc&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>上海国佳生化工程技术研究中心有限公司项目</t>
+          <t>年产5000吨高分子新材料生产项目</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>94bd5c2d-4ebe-4612-8421-e4b930bc1bc2</t>
+          <t>7335ba7e-7055-4eb0-98af-dd1705c17d39</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区生物科技园区（金海社区）茂园路659号五层、六层 </t>
+          <t xml:space="preserve">金山区山阳镇浦卫公路16387号5幢A区 </t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=94bd5c2d-4ebe-4612-8421-e4b930bc1bc2&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=7335ba7e-7055-4eb0-98af-dd1705c17d39&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>上海佳士特润滑科技有限公司新建项目</t>
+          <t>上海彭达铝合金有限公司新建项目</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>9350d87d-ce48-4709-9741-f638f8fd1cc6</t>
+          <t>30cba9e9-8dca-4938-8666-ce7af8f6cf8b</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4300,108 +4300,108 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区新浜镇浩海路318号1幢 </t>
+          <t xml:space="preserve">松江区新浜镇浩海路299号1号、7号厂房 </t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9350d87d-ce48-4709-9741-f638f8fd1cc6&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=30cba9e9-8dca-4938-8666-ce7af8f6cf8b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>上海赋禄汽轮机设备有限公司建设项目</t>
+          <t>汽车标牌电镀件配套喷漆线</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>179bc913-061e-4509-8ddf-2dc3cb42b323</t>
+          <t>9b69d901-d8d8-4b35-ac97-00c24e65a92b</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区柘林镇东方红村1035号两幢厂房 </t>
+          <t xml:space="preserve">金山区亭林镇林盛路189号 </t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=179bc913-061e-4509-8ddf-2dc3cb42b323&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9b69d901-d8d8-4b35-ac97-00c24e65a92b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>上海靓锐电子科技有限公司建设项目</t>
+          <t>上海怡拓精密机械有限公司建设项目</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>c58a1951-5749-40e3-a10e-5e9734541075</t>
+          <t>b189f060-7907-4dd7-8eb8-ad7618749ba6</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区金汇镇工业路1188号1号楼 </t>
+          <t xml:space="preserve">松江区石湖荡镇长塔路399号第7栋一楼 </t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c58a1951-5749-40e3-a10e-5e9734541075&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b189f060-7907-4dd7-8eb8-ad7618749ba6&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>上海神威机械有限公司项目</t>
+          <t>国家农业综合开发上海市农场管理局2018年五四农场生态综合治理项目</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>0c24c509-2a8d-47cd-8f67-57be2341f3db</t>
+          <t>869e82ae-e983-44b3-8d9b-7c934f1bdaae</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4411,34 +4411,34 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇沿钱公路4158 </t>
+          <t xml:space="preserve">奉贤区海湾镇随塘河路1677号五四农场海湾国家森林公园园区外围幼林区域范围内 </t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=0c24c509-2a8d-47cd-8f67-57be2341f3db&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=869e82ae-e983-44b3-8d9b-7c934f1bdaae&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>上海百力格生物技术有限公司改扩建项目</t>
+          <t>上海晶隆新能源有限责任公司新建项目</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>d06237f7-511b-4136-82f7-89d991d06796</t>
+          <t>04955cc9-c4fc-4b2b-b70a-d42e76a0e461</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4448,108 +4448,108 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区松江工业区书海路99号23幢 </t>
+          <t xml:space="preserve">松江区中山街道广富林东路199号10 幢 1、2、3 层 </t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d06237f7-511b-4136-82f7-89d991d06796&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=04955cc9-c4fc-4b2b-b70a-d42e76a0e461&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>辅助生殖类耗材生产车间项目</t>
+          <t>上海江捷环保有限公司项目</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6bdac577-c688-4cb6-acc3-5eb2ff9ae29d</t>
+          <t>859c6c69-e767-49de-8d41-fbdd457f4be4</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区浦江镇新骏环路138号1幢301室 </t>
+          <t xml:space="preserve">奉贤区奉城镇南奉公路669号14幢1层北侧局部厂房 </t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6bdac577-c688-4cb6-acc3-5eb2ff9ae29d&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=859c6c69-e767-49de-8d41-fbdd457f4be4&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>上海日珺精密电子制造有限公司新建项目</t>
+          <t xml:space="preserve">上海良润生物医药科技有限公司新增研发实验室项目 </t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>c809e5a3-6142-42d7-9355-afd8001325e0</t>
+          <t>64a11acf-28ca-49b3-9506-85663b9de9e7</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">中国（上海）自由贸易试验区 </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区星火开发区浦星公路9688弄6号 </t>
+          <t xml:space="preserve">浦东新区自贸区港澳路271号1幢4层 </t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c809e5a3-6142-42d7-9355-afd8001325e0&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=64a11acf-28ca-49b3-9506-85663b9de9e7&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>上海轩捷机械设备厂建设项目</t>
+          <t>上海耀闻电线电缆有限公司项目</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>383b95d3-4777-4135-b3be-4adb34f70b1a</t>
+          <t>4bd5018f-8390-44ac-902e-405a12b5bbef</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4559,219 +4559,219 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区南桥镇八字桥路1078号2号楼 </t>
+          <t xml:space="preserve">奉贤区青村镇钱桥一支路6 </t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=383b95d3-4777-4135-b3be-4adb34f70b1a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=4bd5018f-8390-44ac-902e-405a12b5bbef&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>上海奉城冲压件有限公司项目</t>
+          <t>上海富驰高科技股份有限公司二期项目</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>623c2edc-7c54-42c8-826b-c8186afc0eae</t>
+          <t>f054a7f5-7ac3-48d8-8fb8-b3c00dfc76aa</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">宝山区 </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区奉城镇联民村启民338号 </t>
+          <t xml:space="preserve">宝山区罗泾镇潘泾路3998 </t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-05 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-12 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=623c2edc-7c54-42c8-826b-c8186afc0eae&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f054a7f5-7ac3-48d8-8fb8-b3c00dfc76aa&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>上海迎辉钨钼有限公司建设项目</t>
+          <t>上海伽玛星科技发展有限公司生产、销售和使用10MV医用电子直线加速器项目</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6990c38c-71d5-47da-aef0-2bd83173ecc7</t>
+          <t>57e0f8ba-4689-44e5-b421-0b5138b602f0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">市局 </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区香花桥街道新胜路238号6幢1室 </t>
+          <t xml:space="preserve">金山区金山工业区金仁路588号 </t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6990c38c-71d5-47da-aef0-2bd83173ecc7&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=57e0f8ba-4689-44e5-b421-0b5138b602f0&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>上海得灵纸箱机械有限公司新建项目</t>
+          <t>上海鹤冠实业有限公司迁建项目</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>f14065ab-83d0-4993-83a6-916428f09fa8</t>
+          <t>7f73a20c-b3bc-43f8-a708-3c7699333376</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇金钱公路4828号 </t>
+          <t xml:space="preserve">松江区石湖荡镇长塔路1171幢（部分）、2幢（部分） </t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f14065ab-83d0-4993-83a6-916428f09fa8&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=7f73a20c-b3bc-43f8-a708-3c7699333376&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>上海华琦五金塑料有限公司新建项目</t>
+          <t>上海市虹口区爱轩宠物诊所</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>c376cd15-1735-4938-a8ec-9bffb5d8f8d6</t>
+          <t>797f1a41-b02f-49d6-8ea7-b9c59bfb2c11</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">虹口区 </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区金汇镇辉煌路528号车间二至车间五 </t>
+          <t xml:space="preserve">虹口区广中路街道东宝兴路811号1-2层 </t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c376cd15-1735-4938-a8ec-9bffb5d8f8d6&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=797f1a41-b02f-49d6-8ea7-b9c59bfb2c11&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>住友电工四期扩建项目</t>
+          <t>年新增110万平方米墙纸技术改造项目</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>367878b0-f76f-4df9-86e5-d4cb0185e958</t>
+          <t>2d977377-7f09-48ee-8abd-4271dffaa418</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">中国（上海）自由贸易试验区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区自贸区法赛路281号35号厂房 </t>
+          <t xml:space="preserve">金山区山阳镇阳达路9号 </t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=367878b0-f76f-4df9-86e5-d4cb0185e958&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2d977377-7f09-48ee-8abd-4271dffaa418&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>上海京旗冶金机械设备制造有限公司项目</t>
+          <t>上海享恩机械设备有限公司扩建项目</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>da20560a-7e01-474c-8b64-6dbfddc6286b</t>
+          <t>dff8461a-3929-49c6-bb3a-5da7ee730033</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4781,71 +4781,71 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">宝山区月浦镇月罗路北侧313号 </t>
+          <t xml:space="preserve">宝山区杨行镇铁力路58号27幢 </t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=da20560a-7e01-474c-8b64-6dbfddc6286b&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=dff8461a-3929-49c6-bb3a-5da7ee730033&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lamando NF技术改造项目</t>
+          <t>上海奥耀科技有限公司新建项目</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>01ea5a8e-5c83-46b9-9828-ef417891a151</t>
+          <t>ca5841f3-ccf5-4562-a8b4-c85d8e876a8f</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区安亭镇园大路16号、18号厂区（产证原门牌号园大路2号）3幢厂房一层 </t>
+          <t xml:space="preserve">奉贤区柘林镇驰华路835号5幢厂房南侧 </t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=01ea5a8e-5c83-46b9-9828-ef417891a151&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=ca5841f3-ccf5-4562-a8b4-c85d8e876a8f&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>上海思路迪生物医学科技有限公司核酸提取试剂生产厂房新建项目</t>
+          <t>上海萌兽莘虹宠物诊所有限责任公司</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>f29b9989-c3c1-4c80-84f1-2f47e4817f12</t>
+          <t>b13293da-49e6-49c3-be00-9d0d3a18b2a9</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4855,219 +4855,219 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区浦江镇绿洲环路10号7幢101 室、201 室、202 室 </t>
+          <t xml:space="preserve">闵行区梅龙镇莘朱路2102号4幢109-111室 </t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=f29b9989-c3c1-4c80-84f1-2f47e4817f12&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b13293da-49e6-49c3-be00-9d0d3a18b2a9&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>上海乐道汽车销售服务有限公司新建项目</t>
+          <t>方达（上海）医药科技有限公司海泰园区实验室新建项目</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3c5da88a-d9c2-408a-bd2c-6d792561dc20</t>
+          <t>34f146a8-1295-4961-a23f-fbc36368ad13</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区泗泾镇莘砖公路1108号9栋105 </t>
+          <t xml:space="preserve">浦东新区张江高科技园区张衡路1227号海泰园区2幢1-2层除102和2-1室 </t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3c5da88a-d9c2-408a-bd2c-6d792561dc20&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=34f146a8-1295-4961-a23f-fbc36368ad13&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>上海名升汽车服务有限公司项目</t>
+          <t>上海市浦东新区唐镇PDP0-0403单元（1区级动迁基地）W12-11地块土地储...</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>a53e1518-2b18-43c2-a9c1-23eca7c783b1</t>
+          <t>190def83-88c1-44e7-964f-d0d8872f4b6c</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">徐汇区 </t>
+          <t xml:space="preserve">浦东新区 </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t xml:space="preserve">徐汇区康健街道漕宝路320号2 幢 2101-2104 室 </t>
+          <t xml:space="preserve">浦东新区唐镇PDP0-0403单元W12-11地块 </t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-11 </t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-18 </t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a53e1518-2b18-43c2-a9c1-23eca7c783b1&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=190def83-88c1-44e7-964f-d0d8872f4b6c&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>上海汇吉生物技术有限公司新建实验室项目（调整）</t>
+          <t>上海贤吉内燃机配件厂新建项目</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>da88f0bf-40f9-4bb6-ac11-794a31b20fd6</t>
+          <t>e7daa93b-618a-48ba-8235-9b6d8344f6cc</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区新桥镇莘砖公路518号8幢101-1、2层整体 </t>
+          <t xml:space="preserve">奉贤区庄行镇沪发路828号1-3幢 </t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-09 </t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-14 </t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=da88f0bf-40f9-4bb6-ac11-794a31b20fd6&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e7daa93b-618a-48ba-8235-9b6d8344f6cc&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>静安区灵石社区地块污染土壤修复项目</t>
+          <t>上海市固体废物处置中心（二期）项目</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>01fcd265-9928-4edc-8e73-d20a8c93129a</t>
+          <t>04a7ea22-0f5c-4f6d-98af-0e66d307d15a</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">静安区 </t>
+          <t xml:space="preserve">市局 </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t xml:space="preserve">静安区大宁路街道平型关路1525 </t>
+          <t xml:space="preserve">浦东新区老港镇老港生态环保基地四期 </t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-09 </t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-14 </t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=01fcd265-9928-4edc-8e73-d20a8c93129a&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=04a7ea22-0f5c-4f6d-98af-0e66d307d15a&amp;fileType=BL_GSWTS</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>上海达力干燥工程有限公司建设项目</t>
+          <t>阀门制造自动化生产线技术改造项目</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>a25bc551-1967-4892-b479-412874a9caa6</t>
+          <t>2f715ff7-7857-48ee-9818-7f7de8309ad1</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">青浦区 </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区嘉定工业区兴文路885号6幢1层G区 </t>
+          <t xml:space="preserve">青浦区香花桥街道新丹路118弄28号 </t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-09 </t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-14 </t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a25bc551-1967-4892-b479-412874a9caa6&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2f715ff7-7857-48ee-9818-7f7de8309ad1&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>上海山欣实业有限公司扩建项目</t>
+          <t>上海奥凯汽车零部件有限公司改扩建项目</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>aeb5b6a0-5c0e-4bf9-8505-548cf3f7cd70</t>
+          <t>9b518b90-8d6f-41f8-8cf8-25fdb342bf25</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5077,71 +5077,71 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇龙贤路119号 </t>
+          <t xml:space="preserve">奉贤区奉城镇航塘公路4451号 </t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=aeb5b6a0-5c0e-4bf9-8505-548cf3f7cd70&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9b518b90-8d6f-41f8-8cf8-25fdb342bf25&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Y4路（临港大道~东大公路）道路新建工程</t>
+          <t>上海荣玛办公家具有限公司新建项目</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>25b4fcb2-29dd-4639-9c56-e315d1ecc2b4</t>
+          <t>d79434f5-69de-42c4-af4b-a4cfbbac6a2e</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">临港地区开发建设管委会 </t>
+          <t xml:space="preserve">奉贤区 </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区万祥镇临港大道~东大公路棉场村路北640号 </t>
+          <t xml:space="preserve">奉贤区青村镇新张村518号4幢 </t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=25b4fcb2-29dd-4639-9c56-e315d1ecc2b4&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d79434f5-69de-42c4-af4b-a4cfbbac6a2e&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>上海崮曼门业有限公司扩建项目</t>
+          <t>上海奥茵绅机电科技有限公司建设项目</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>83798d57-5e31-48dc-a39b-2fc8874c0061</t>
+          <t>300aa37a-e554-43ba-8936-60758e07177b</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5151,71 +5151,71 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区外冈镇西冈身路218号1幢一层C区、2层 </t>
+          <t xml:space="preserve">嘉定区南翔镇江公路485号12号厂房 </t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=83798d57-5e31-48dc-a39b-2fc8874c0061&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=300aa37a-e554-43ba-8936-60758e07177b&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>上海浦东川交汽车修理厂建设项目</t>
+          <t>上海锦元文化艺术发展有限公司（扩建）调整项目</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>b0a2bf40-8ce0-4a5a-a42b-081795dbc904</t>
+          <t>55b51690-3191-4ea4-8a02-d28ca0630469</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">普陀区 </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区康桥镇康梧路218号3幢 </t>
+          <t xml:space="preserve">普陀区桃浦街道柳园路58号2幢一楼 </t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b0a2bf40-8ce0-4a5a-a42b-081795dbc904&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=55b51690-3191-4ea4-8a02-d28ca0630469&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>上海舟晟机电设备有限公司新建项目</t>
+          <t>上海阜于精密机械有限公司项目</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3e7549a7-c7fa-4abd-9957-7480256dbca2</t>
+          <t>9867bbab-4a1d-48fd-a554-f4e68b55c1c5</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5225,145 +5225,145 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区曹路镇上川路1455号6号楼1室 </t>
+          <t xml:space="preserve">浦东新区川沙新镇川图路779号8幢 </t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3e7549a7-c7fa-4abd-9957-7480256dbca2&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9867bbab-4a1d-48fd-a554-f4e68b55c1c5&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>上海馨瑁精密机械设备有限公司建设项目</t>
+          <t>空间产品通用运输包装箱、非标自动化设备生产基地项目</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>bf0cde83-925e-463a-9e4c-ae625c3dd8b4</t>
+          <t>44fb75ed-06e6-4eb7-a7c0-50c8145050a8</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">嘉定区 </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区青村镇金钱公路4789号2幢1层 </t>
+          <t xml:space="preserve">嘉定区徐行镇嘉罗公路1719号25幢 </t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=bf0cde83-925e-463a-9e4c-ae625c3dd8b4&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=44fb75ed-06e6-4eb7-a7c0-50c8145050a8&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>上海正格展览服务有限公司建设项目</t>
+          <t>年产10套表面处理设备、20套清洗设备、30套废水处理设备、40套节能环保设备生...</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>c09bf61b-cade-4c3c-9868-901afe323558</t>
+          <t>a1a82883-b3e0-4300-be3f-2929b51bcf66</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t xml:space="preserve">青浦区上海张江高新技术产业开发区青浦园区新胜路239号3幢 </t>
+          <t xml:space="preserve">金山区朱泾镇亭枫公路2398号2幢C区 </t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-04 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-11 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c09bf61b-cade-4c3c-9868-901afe323558&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a1a82883-b3e0-4300-be3f-2929b51bcf66&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>上海神舟新能源发展有限公司电池生产线技术改造项目</t>
+          <t>上海理贝包装机械有限公司建设项目</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>019c3082-6ee8-4e17-b58c-f64160b97ec7</t>
+          <t>8ec0da6b-5a34-4b78-acf4-c7e979540a34</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t xml:space="preserve">闵行区浦江镇江月路505号 </t>
+          <t xml:space="preserve">松江区九亭镇盛龙路800号 </t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-04-09 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=019c3082-6ee8-4e17-b58c-f64160b97ec7&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=8ec0da6b-5a34-4b78-acf4-c7e979540a34&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>上汽通用汽车有限公司C1平台中高级车及其变型车技术改造项目</t>
+          <t>上海威理消毒剂有限公司新建项目</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>45b08f62-0c9a-44d4-b4d5-da0ae6071786</t>
+          <t>b8e411fe-61b2-4ce5-98d1-c0064b434140</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5373,281 +5373,651 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区金桥经济技术开发区金穗路567号（凯迪拉克工厂）和申江路1500号（北厂区） </t>
+          <t xml:space="preserve">浦东新区新场镇古博路28号4幢第2层202室 </t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-06-21 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=45b08f62-0c9a-44d4-b4d5-da0ae6071786&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=b8e411fe-61b2-4ce5-98d1-c0064b434140&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>年产40000台电机、泵等产品新增喷漆工艺技改及食堂项目</t>
+          <t xml:space="preserve">上海浦松钢结构制造有限公司项目 </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>e8ca96c7-2448-4291-ae4a-7e419a7e4a3e</t>
+          <t>347dbf72-1c24-40ce-a168-cd0022c4ad30</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区金山工业区金百路466号 </t>
+          <t xml:space="preserve">松江区叶榭镇叶昌公路85 号 </t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-06-27 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e8ca96c7-2448-4291-ae4a-7e419a7e4a3e&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=347dbf72-1c24-40ce-a168-cd0022c4ad30&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>年产4000吨石油化工管线阀、2000吨电站专用阀新增喷漆、抛丸等技改项目</t>
+          <t>锦秋J1-04地块九年一贯制学校新建工程</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>a52cfe20-3fa1-464a-9043-d9868874f70b</t>
+          <t>10a3662a-ff70-4e59-8b5f-a0384f8f2b90</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">宝山区 </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区金山工业区金百路398号 </t>
+          <t xml:space="preserve">宝山区大场镇南陈路祁连社区J1-04地块 </t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-06-27 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a52cfe20-3fa1-464a-9043-d9868874f70b&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=10a3662a-ff70-4e59-8b5f-a0384f8f2b90&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>上海耐邦泵业制造有限公司新增喷漆线、浸漆线、木箱包装项目</t>
+          <t>贝洱海拉温控系统（上海）有限公司扩建项目</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>bf3ca1d4-a7e2-4058-a77d-e902a5df16e9</t>
+          <t>e2aa10c1-c598-4da3-acdd-36f9ebbc740a</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t xml:space="preserve">金山区金山工业区通业路211号 </t>
+          <t xml:space="preserve">闵行区莘庄工业区光中路868 </t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-06-27 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=bf3ca1d4-a7e2-4058-a77d-e902a5df16e9&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e2aa10c1-c598-4da3-acdd-36f9ebbc740a&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>上海冰玥制冷科技有限公司建设项目</t>
+          <t>上海迪意电子电器厂迁建项目</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>c84e9f19-223f-49c7-8884-2a1fefebbca7</t>
+          <t>2b817385-e973-4ed5-bf21-be083a9b9e04</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区 </t>
+          <t xml:space="preserve">松江区 </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t xml:space="preserve">嘉定区马陆镇丰饶路100号 </t>
+          <t xml:space="preserve">松江区洞泾镇洞舟路459号13幢 </t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-06-27 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c84e9f19-223f-49c7-8884-2a1fefebbca7&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2b817385-e973-4ed5-bf21-be083a9b9e04&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>上海松华药业有限公司搬迁项目</t>
+          <t>日化用品回收和资源化利用项目</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3ddeb073-6b7a-4ef0-828b-72f16e176929</t>
+          <t>2b04af53-dfc7-4af2-a8c5-c54e1df68bbd</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区 </t>
+          <t xml:space="preserve">闵行区 </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t xml:space="preserve">松江区松江工业区李高路515号1#厂房 </t>
+          <t xml:space="preserve">闵行区江川路街道天星路550号 </t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">2019-06-27 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t xml:space="preserve">- </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=3ddeb073-6b7a-4ef0-828b-72f16e176929&amp;fileType=BL_GSWTS</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=2b04af53-dfc7-4af2-a8c5-c54e1df68bbd&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>上海昱帆实业有限公司项目</t>
+          <t>上海新锦华商业有限公司码头项目</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>44fb8ce3-0c71-4bf6-83e4-f4c40270bd29</t>
+          <t>4712ca53-7e31-4366-b0a3-1c359bbcc48a</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区 </t>
+          <t xml:space="preserve">长宁区 </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t xml:space="preserve">浦东新区祝桥镇金闻路80-3号1幢 </t>
+          <t xml:space="preserve">长宁区新泾镇街道泾力西路828号 </t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-10 </t>
+          <t xml:space="preserve">2020-08-17 </t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=44fb8ce3-0c71-4bf6-83e4-f4c40270bd29&amp;fileType=BL_XM_TABLE</t>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=4712ca53-7e31-4366-b0a3-1c359bbcc48a&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>上海雷明装饰有限公司建设项目</t>
+          <t>年产3600吨不锈钢管材、管件生产加工项目</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>e067911c-db6c-404a-8017-ffd918637b83</t>
+          <t>9f617b86-d758-4351-a884-8baf61443e01</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区 </t>
+          <t xml:space="preserve">金山区 </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t xml:space="preserve">奉贤区四团镇安泰路369号 </t>
+          <t xml:space="preserve">金山区亭林镇林盛路59号1幢1层C区 </t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">2020-08-03 </t>
+          <t xml:space="preserve">2020-08-13 </t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=9f617b86-d758-4351-a884-8baf61443e01&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>沙特阿拉伯埃克虏耶夫石油公司上海研发中心项目</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>129b97e3-262f-4aa5-833d-efdc57c813f1</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">松江区 </t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">松江区新桥镇莘砖公路518号2号楼102室 </t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=129b97e3-262f-4aa5-833d-efdc57c813f1&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>上海润家生物医药科技有限公司法医类检测实验室项目</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>44a24196-0416-4329-9916-0e7dbb752d23</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">静安区 </t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">静安区共和新路街道共和新路1346号通用大厦10楼 </t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=44a24196-0416-4329-9916-0e7dbb752d23&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>上海畅享图文制作有限公司建设项目</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>6ec76e07-f365-4a51-9378-eac5ceaa6e36</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">松江区 </t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">松江区中山街道中创路68号9幢4层 </t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=6ec76e07-f365-4a51-9378-eac5ceaa6e36&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>佑耐汽车技术服务（上海）有限公司建设项目</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>fab29e7b-bb5c-469d-9f6c-bd505bdcb97b</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">嘉定区 </t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">嘉定区外冈镇恒永路328号2号楼1层 </t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=fab29e7b-bb5c-469d-9f6c-bd505bdcb97b&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>帝人化成复合塑料（上海）有限公司技改项目</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>c63d5062-4618-4c37-9ff9-b75027cab9bf</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">中国（上海）自由贸易试验区 </t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">浦东新区自贸区华京路310号 </t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c63d5062-4618-4c37-9ff9-b75027cab9bf&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>上海邦浦实业集团有限公司改扩建项目</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>90c58c31-efc9-4647-b46f-ab63b47cb535</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青浦区 </t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">青浦区白鹤镇沈家浜路111号 </t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=90c58c31-efc9-4647-b46f-ab63b47cb535&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>上海达申汽车服务有限公司宝山分公司新建项目</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>c7633c73-8709-4897-8a65-1f7988323df7</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宝山区 </t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">宝山区淞南镇呼兰路157号1号库 </t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=c7633c73-8709-4897-8a65-1f7988323df7&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>上海市园林科学规划研究院改扩建工程</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>80e837e8-5d6c-4461-80a1-00d340efe12d</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">徐汇区 </t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">徐汇区长桥街道龙吴路899号 </t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=80e837e8-5d6c-4461-80a1-00d340efe12d&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>上海纳格西斯商标有限公司改扩建项目</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>a493d362-b403-42f1-8fd8-92e429ce596d</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">松江区 </t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">松江区永丰街道欣玉路200号 </t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-13 </t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-20 </t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=a493d362-b403-42f1-8fd8-92e429ce596d&amp;fileType=BL_XM_TABLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>和祺（上海）精密模具有限责任公司新建项目</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>d3a45ab9-eab1-4d13-b9e5-8c9e11f3109d</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">闵行区 </t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">闵行区浦江镇苏召路1785弄98号 </t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t xml:space="preserve">2020-08-10 </t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=e067911c-db6c-404a-8017-ffd918637b83&amp;fileType=BL_XM_TABLE</t>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2020-08-17 </t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>https://xxgk.eic.sh.cn/shhjkxw/eiareport/action/download.do?stEiaId=d3a45ab9-eab1-4d13-b9e5-8c9e11f3109d&amp;fileType=BL_XM_TABLE</t>
         </is>
       </c>
     </row>
